--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic5/6월</t>
+          <t>best 20 은자의나라</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ng(영-有)-nationalgeographic5월 ng(한)-nationalgeographic6월</t>
+          <t>dm만 있음</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -485,7 +485,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ng(영-有)-nationalgeographic5월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -496,7 +496,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic5/6월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -507,7 +507,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic5/6월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -529,7 +529,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic5/6월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -540,7 +540,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>best 20 은자의나라</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>michigan action english1번</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ng(영)-nationalgeographic4/5월</t>
+          <t>nationalgeographic스페셜에디션i</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>nationalgeographic스페셜에디션i</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -592,7 +592,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>ng(영)-nationalgeographic4/5월</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -603,7 +603,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>ng(영-有)-nationalgeographic5월</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -614,7 +614,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nationalgeographic스페셜에디션i</t>
+          <t>ng(영-有)-nationalgeographic5월 ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -625,7 +625,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic5월/6월 ng(영-有)-nationalgeographic5월</t>
+          <t>ng(영-有)-nationalgeographic5월 은자</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -636,7 +636,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>ng(한)-nationalgeographic5/6월</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -647,7 +647,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dm만 있음</t>
+          <t>ng(한)-nationalgeographic5/6월</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -658,7 +658,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>ng(한)-nationalgeographic5/6월</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -669,7 +669,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>ng(한)-nationalgeographic5/6월</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -680,7 +680,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>ng(한)-nationalgeographic5월/6월 ng(영-有)-nationalgeographic5월</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -691,7 +691,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>보기드문 사진들(vip)</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -702,7 +702,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>눈부시게 아름다운 사진들(vip)</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>눈부시게 아름다운 사진들(vip)</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nationalgeographic스페셜에디션i</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -735,7 +735,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -757,7 +757,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>보기드문 사진들</t>
+          <t>ng(한)-nationalgeographic6월</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -768,7 +768,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>눈부시게 아름다운 사진들</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -779,7 +779,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>눈부시게 아름다운 사진들</t>
+          <t>눈부시게 아름다운 사진들(vip)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -790,7 +790,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ng(한)-nationalgeographic6월</t>
+          <t>눈부시게 아름다운 사진들(vip)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>michigan action english1번</t>
+          <t>보기드문 사진들</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -812,7 +812,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ng(영-有)-nationalgeographic5월 은자</t>
+          <t>보기드문 사진들(vip)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
